--- a/traductions/traductions.xlsx
+++ b/traductions/traductions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\djaam\Makki\traductions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8E1D3E-E3FB-4797-A886-03E9F2B598BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFDF12B-DBFD-4097-953C-E8B8920AFDD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{0304B7E8-873D-4A0E-91CD-5A66F8A041E8}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="226">
   <si>
     <t>ID</t>
   </si>
@@ -488,9 +488,6 @@
   </si>
   <si>
     <t>La mise en ligne du fichier a échoué. Vérifiez que le fichier ne dépasse pas 4 Mo.</t>
-  </si>
-  <si>
-    <t>الصفحة الرئيسية</t>
   </si>
   <si>
     <t>بحث</t>
@@ -702,6 +699,12 @@
   </si>
   <si>
     <t>rtl</t>
+  </si>
+  <si>
+    <t>الصفحة الرئيسية حساب</t>
+  </si>
+  <si>
+    <t>حساب</t>
   </si>
 </sst>
 </file>
@@ -1774,7 +1777,7 @@
   <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1795,7 +1798,7 @@
         <v>30</v>
       </c>
       <c r="E1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1803,7 +1806,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1811,7 +1814,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1819,7 +1822,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>154</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1827,7 +1830,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1835,7 +1838,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1843,7 +1846,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1851,7 +1854,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1859,7 +1862,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1867,7 +1870,7 @@
         <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1875,7 +1878,7 @@
         <v>18</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1883,7 +1886,7 @@
         <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1891,7 +1894,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1899,7 +1902,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1907,7 +1910,7 @@
         <v>26</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1915,7 +1918,7 @@
         <v>27</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1923,7 +1926,7 @@
         <v>28</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1931,7 +1934,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1939,7 +1942,7 @@
         <v>33</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1947,7 +1950,7 @@
         <v>35</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1955,7 +1958,7 @@
         <v>38</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1963,7 +1966,7 @@
         <v>39</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1971,7 +1974,7 @@
         <v>41</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1979,7 +1982,7 @@
         <v>44</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1987,7 +1990,7 @@
         <v>45</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1995,7 +1998,7 @@
         <v>47</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -2003,7 +2006,7 @@
         <v>50</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -2011,7 +2014,7 @@
         <v>52</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -2019,7 +2022,7 @@
         <v>54</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -2027,7 +2030,7 @@
         <v>57</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -2035,7 +2038,7 @@
         <v>58</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -2043,7 +2046,7 @@
         <v>60</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -2051,7 +2054,7 @@
         <v>62</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -2059,7 +2062,7 @@
         <v>64</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -2067,7 +2070,7 @@
         <v>66</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -2075,7 +2078,7 @@
         <v>68</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -2083,7 +2086,7 @@
         <v>70</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -2099,7 +2102,7 @@
         <v>72</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -2107,7 +2110,7 @@
         <v>74</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -2115,7 +2118,7 @@
         <v>75</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -2123,7 +2126,7 @@
         <v>78</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -2131,7 +2134,7 @@
         <v>79</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -2139,7 +2142,7 @@
         <v>81</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -2147,7 +2150,7 @@
         <v>82</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -2155,7 +2158,7 @@
         <v>84</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -2163,7 +2166,7 @@
         <v>86</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -2171,7 +2174,7 @@
         <v>88</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -2179,7 +2182,7 @@
         <v>90</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -2187,7 +2190,7 @@
         <v>92</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -2195,7 +2198,7 @@
         <v>94</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -2203,7 +2206,7 @@
         <v>96</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -2211,7 +2214,7 @@
         <v>97</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -2219,7 +2222,7 @@
         <v>98</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -2227,7 +2230,7 @@
         <v>103</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -2235,7 +2238,7 @@
         <v>105</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -2243,7 +2246,7 @@
         <v>107</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -2251,7 +2254,7 @@
         <v>109</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -2259,7 +2262,7 @@
         <v>111</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -2267,7 +2270,7 @@
         <v>113</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -2275,7 +2278,7 @@
         <v>115</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -2283,7 +2286,7 @@
         <v>117</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -2291,7 +2294,7 @@
         <v>119</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -2299,7 +2302,7 @@
         <v>121</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -2307,7 +2310,7 @@
         <v>125</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -2315,7 +2318,7 @@
         <v>123</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -2323,7 +2326,7 @@
         <v>127</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -2331,7 +2334,7 @@
         <v>129</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -2339,7 +2342,7 @@
         <v>131</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -2347,7 +2350,7 @@
         <v>133</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -2355,7 +2358,7 @@
         <v>135</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -2363,7 +2366,7 @@
         <v>136</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -2371,7 +2374,7 @@
         <v>137</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -2379,7 +2382,7 @@
         <v>142</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -2387,7 +2390,7 @@
         <v>143</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -2395,7 +2398,7 @@
         <v>144</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -2403,7 +2406,7 @@
         <v>146</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -2411,7 +2414,7 @@
         <v>148</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -2419,7 +2422,7 @@
         <v>150</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -2427,7 +2430,7 @@
         <v>152</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/traductions/traductions.xlsx
+++ b/traductions/traductions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\djaam\Makki\traductions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFDF12B-DBFD-4097-953C-E8B8920AFDD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD09486-F0A4-4EAF-AC2A-2AC39367CBCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{0304B7E8-873D-4A0E-91CD-5A66F8A041E8}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="225">
   <si>
     <t>ID</t>
   </si>
@@ -529,9 +529,6 @@
     <t>موضوع</t>
   </si>
   <si>
-    <t>إذا كان متعلقًا بجامعة ، فالرجاء الإشارة إليها هنا</t>
-  </si>
-  <si>
     <t>اسم المستخدم</t>
   </si>
   <si>
@@ -634,77 +631,77 @@
     <t>المعجم الكامل</t>
   </si>
   <si>
-    <t xml:space="preserve">بالملء هذا النموذج، فإنك توافق على أن يتم الاحتفاظ بالبيانات المدخلة حتى يتم معالجتها من قبل المسؤول، لغرض الرد على اتصالك. إذا لم يتم الرد، سيتم حذف بياناتك أيضًا.
+    <t>إضافة</t>
+  </si>
+  <si>
+    <t>فشل تحميل الملف. يرجى التحقق من أن حجم الملف لا يتجاوز 4 ميغابايت.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">معجم مكي اللبناني </t>
+  </si>
+  <si>
+    <t>النتائج:</t>
+  </si>
+  <si>
+    <t>الكلمات المشابهة، من نفس العائلة:</t>
+  </si>
+  <si>
+    <t>للاتصل بنا</t>
+  </si>
+  <si>
+    <t>البريد الإلكتروني</t>
+  </si>
+  <si>
+    <t>الرسالة</t>
+  </si>
+  <si>
+    <t>التاريخ</t>
+  </si>
+  <si>
+    <t>الملف</t>
+  </si>
+  <si>
+    <t>الحذف</t>
+  </si>
+  <si>
+    <t>البحث المتقدم</t>
+  </si>
+  <si>
+    <t>البحث السريع…</t>
+  </si>
+  <si>
+    <t>المرادفات:</t>
+  </si>
+  <si>
+    <t>الأمثلة:</t>
+  </si>
+  <si>
+    <t>التحميل</t>
+  </si>
+  <si>
+    <t>الموضوع</t>
+  </si>
+  <si>
+    <t>الأصل الجغرافي</t>
+  </si>
+  <si>
+    <t>البحث</t>
+  </si>
+  <si>
+    <t>الاسم</t>
+  </si>
+  <si>
+    <t>rtl</t>
+  </si>
+  <si>
+    <t>الصفحة الرئيسية</t>
+  </si>
+  <si>
+    <t>إذا كانت جامعيا ، فالرجاء إشارة اسم الجامعة هنا !</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بملء هذا النموذج، فإنك توافق على أن يتم الاحتفاظ بالبياناتك شخصية  للرد على طلبك.
 </t>
-  </si>
-  <si>
-    <t>إضافة</t>
-  </si>
-  <si>
-    <t>فشل تحميل الملف. يرجى التحقق من أن حجم الملف لا يتجاوز 4 ميغابايت.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">معجم مكي اللبناني </t>
-  </si>
-  <si>
-    <t>النتائج:</t>
-  </si>
-  <si>
-    <t>الكلمات المشابهة، من نفس العائلة:</t>
-  </si>
-  <si>
-    <t>للاتصل بنا</t>
-  </si>
-  <si>
-    <t>البريد الإلكتروني</t>
-  </si>
-  <si>
-    <t>الرسالة</t>
-  </si>
-  <si>
-    <t>التاريخ</t>
-  </si>
-  <si>
-    <t>الملف</t>
-  </si>
-  <si>
-    <t>الحذف</t>
-  </si>
-  <si>
-    <t>البحث المتقدم</t>
-  </si>
-  <si>
-    <t>البحث السريع…</t>
-  </si>
-  <si>
-    <t>المرادفات:</t>
-  </si>
-  <si>
-    <t>الأمثلة:</t>
-  </si>
-  <si>
-    <t>التحميل</t>
-  </si>
-  <si>
-    <t>الموضوع</t>
-  </si>
-  <si>
-    <t>الأصل الجغرافي</t>
-  </si>
-  <si>
-    <t>البحث</t>
-  </si>
-  <si>
-    <t>الاسم</t>
-  </si>
-  <si>
-    <t>rtl</t>
-  </si>
-  <si>
-    <t>الصفحة الرئيسية حساب</t>
-  </si>
-  <si>
-    <t>حساب</t>
   </si>
 </sst>
 </file>
@@ -1777,7 +1774,7 @@
   <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1798,7 +1795,7 @@
         <v>30</v>
       </c>
       <c r="E1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1806,7 +1803,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>225</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1814,7 +1811,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1822,7 +1819,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1910,7 +1907,7 @@
         <v>26</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1918,7 +1915,7 @@
         <v>27</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1926,7 +1923,7 @@
         <v>28</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1934,7 +1931,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1958,7 +1955,7 @@
         <v>38</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>167</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1966,7 +1963,7 @@
         <v>39</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1974,7 +1971,7 @@
         <v>41</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1982,7 +1979,7 @@
         <v>44</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1990,7 +1987,7 @@
         <v>45</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1998,7 +1995,7 @@
         <v>47</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -2006,7 +2003,7 @@
         <v>50</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -2014,7 +2011,7 @@
         <v>52</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -2022,7 +2019,7 @@
         <v>54</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -2030,7 +2027,7 @@
         <v>57</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -2038,7 +2035,7 @@
         <v>58</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -2054,7 +2051,7 @@
         <v>62</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -2062,7 +2059,7 @@
         <v>64</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -2070,7 +2067,7 @@
         <v>66</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -2078,7 +2075,7 @@
         <v>68</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -2086,7 +2083,7 @@
         <v>70</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -2102,7 +2099,7 @@
         <v>72</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -2110,7 +2107,7 @@
         <v>74</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -2118,7 +2115,7 @@
         <v>75</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -2126,7 +2123,7 @@
         <v>78</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -2134,7 +2131,7 @@
         <v>79</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -2142,7 +2139,7 @@
         <v>81</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -2150,7 +2147,7 @@
         <v>82</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -2158,7 +2155,7 @@
         <v>84</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -2166,7 +2163,7 @@
         <v>86</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -2174,7 +2171,7 @@
         <v>88</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -2182,7 +2179,7 @@
         <v>90</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -2190,7 +2187,7 @@
         <v>92</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -2198,7 +2195,7 @@
         <v>94</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -2206,7 +2203,7 @@
         <v>96</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -2214,7 +2211,7 @@
         <v>97</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -2222,7 +2219,7 @@
         <v>98</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -2230,7 +2227,7 @@
         <v>103</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -2238,7 +2235,7 @@
         <v>105</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -2246,7 +2243,7 @@
         <v>107</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -2254,7 +2251,7 @@
         <v>109</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -2262,7 +2259,7 @@
         <v>111</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -2270,7 +2267,7 @@
         <v>113</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -2278,7 +2275,7 @@
         <v>115</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -2286,7 +2283,7 @@
         <v>117</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -2294,7 +2291,7 @@
         <v>119</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -2302,7 +2299,7 @@
         <v>121</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -2310,7 +2307,7 @@
         <v>125</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -2318,7 +2315,7 @@
         <v>123</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -2326,7 +2323,7 @@
         <v>127</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -2334,7 +2331,7 @@
         <v>129</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -2342,7 +2339,7 @@
         <v>131</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -2350,7 +2347,7 @@
         <v>133</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -2358,7 +2355,7 @@
         <v>135</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -2366,7 +2363,7 @@
         <v>136</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -2374,7 +2371,7 @@
         <v>137</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -2382,7 +2379,7 @@
         <v>142</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -2390,7 +2387,7 @@
         <v>143</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -2398,7 +2395,7 @@
         <v>144</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -2406,15 +2403,15 @@
         <v>146</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>148</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -2422,7 +2419,7 @@
         <v>150</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -2430,7 +2427,7 @@
         <v>152</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/traductions/traductions.xlsx
+++ b/traductions/traductions.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="226">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -191,379 +191,382 @@
     <t xml:space="preserve">licence_icone_chamfleur</t>
   </si>
   <si>
-    <t xml:space="preserve">Icône chameau et fleurs: Licence PD, merci à Darius Dan.</t>
+    <t xml:space="preserve">Icône chameau : Licence PD, merci à Darius Dan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">licence_icone_suppr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Icône suppression : Licence CC, merci à Jordan Hughes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">titre_fichiers_trad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fichiers de traductions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fichier_trad_langue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Langue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fichier_trad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fichier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fichier_trad_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fichier_trad_suppr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">titre_fichiers_data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fichiers de données</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fichier_data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fichier_data_suppr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">btn_suppr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supprimer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recherche_poussee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recherche avancée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">barre_recherche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recherche rapide…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fichier_trad_choisir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choisir les fichiers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fichier_trad_envoyer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Téléverser les fichiers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fichier_data_choisir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fichier_data_envoyer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">synonyme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Synonymes :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">origine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Origines géographiques :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prononciation :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">theme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thématiques :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exemple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exemples :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">etymo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etymologie :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">login-button_connecte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connecté</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bouton_admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bouton_deco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se déconnecter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">export_data_btn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Télécharger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">msg_btn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Envoyer le message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">search-mot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">search-pronunciation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prononciation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">search-etymologie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etymologie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recherche_theme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thème</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recherche_lieu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Origine géographique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">searching</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rechercher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valeur_aucune</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aucun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contact_msg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merci d'avoir pris le temps de nous contacter ! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">deco_msg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vous avez bien été déconnecté.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unauth_err</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vous n'êtes pas connecté(e) !</t>
+  </si>
+  <si>
+    <t xml:space="preserve">badreq_err</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauvaise requête.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">co_msg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connecté(e) !</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contact_err</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il y a eu une erreur en traitant votre demande.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">upload_msg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Import réussi !</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contact_nom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contact_sujet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contact_mail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adresse mail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contact_corps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contact_suppr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">donnees_recues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contacts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lexique_entier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lexique entier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contact_donnees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En remplissant ce formulaire, vous acceptez que les données entrées soient conservées jusqu'à traitement par un administrateur, et ce dans l'unique but de donner éventuellement suite à votre prise de contact. Si celle-ci n'a pas lieu, vos données seront aussi supprimées.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ajouter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajouter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">upload_err</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La mise en ligne du fichier a échoué. Vérifiez que le fichier ne dépasse pas 4 Mo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rtl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تسجيل الدخول</t>
+  </si>
+  <si>
+    <t xml:space="preserve">معجم مكي اللبناني </t>
+  </si>
+  <si>
+    <t xml:space="preserve">الصفحة الرئيسية</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بحث</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بحث حسب الموضوع</t>
+  </si>
+  <si>
+    <t xml:space="preserve">صفحة الاتصال</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اللغة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عرض المشروع</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عرض المشروع يجب أن يكون هنا.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شكر المساهمة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جزء الشكر للمشروع يجب أن يكون هنا.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">للتواصل:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">© 2024 مكي - جميع الحقوق محفوظة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">النتائج:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الكلمات المشابهة، من نفس العائلة:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">للاتصل بنا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الاسم واللقب </t>
+  </si>
+  <si>
+    <t xml:space="preserve">موضوع</t>
+  </si>
+  <si>
+    <t xml:space="preserve">إذا كانت جامعيا ، فالرجاء إشارة اسم الجامعة هنا !</t>
+  </si>
+  <si>
+    <t xml:space="preserve">البريد الإلكتروني</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الرسالة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اسم المستخدم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كلمة المرور</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تراخيص الاستخدام</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نمط الأنماط: ترخيص MIT، شكرًا لـ تيماني عفيف.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">أيقونة الجمل والزهور: رخصة PD، شكرًا لـ داريوس دان.</t>
   </si>
   <si>
     <t xml:space="preserve">licence_icone_de</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Icône dé : Licence CC0, merci à Lima Studio.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">titre_fichiers_trad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fichiers de traductions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fichier_trad_langue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Langue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fichier_trad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fichier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fichier_trad_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fichier_trad_suppr</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve">titre_fichiers_data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fichiers de données</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fichier_data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fichier_data_suppr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">btn_suppr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supprimer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recherche_poussee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recherche avancée</t>
-  </si>
-  <si>
-    <t xml:space="preserve">barre_recherche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recherche rapide…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fichier_trad_choisir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choisir les fichiers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fichier_trad_envoyer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Téléverser les fichiers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fichier_data_choisir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fichier_data_envoyer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">synonyme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Synonymes :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">origine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Origines géographiques :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pron</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prononciation :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">theme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thématiques :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exemple</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exemples :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">etymo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Etymologie :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">login-button_connecte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Connecté</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bouton_admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gestion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bouton_deco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se déconnecter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">export_data_btn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Télécharger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">msg_btn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Envoyer le message</t>
-  </si>
-  <si>
-    <t xml:space="preserve">search-mot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">search-pronunciation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prononciation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">search-etymologie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Etymologie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recherche_theme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thème</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recherche_lieu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Origine géographique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">searching</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rechercher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">valeur_aucune</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aucun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contact_msg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merci d'avoir pris le temps de nous contacter ! </t>
-  </si>
-  <si>
-    <t xml:space="preserve">deco_msg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vous avez bien été déconnecté.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unauth_err</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vous n'êtes pas connecté(e) !</t>
-  </si>
-  <si>
-    <t xml:space="preserve">badreq_err</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauvaise requête.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">co_msg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Connecté(e) !</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contact_err</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Il y a eu une erreur en traitant votre demande.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">upload_msg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Import réussi !</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contact_nom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contact_sujet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contact_mail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adresse mail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contact_corps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Message</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contact_suppr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">donnees_recues</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contacts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lexique_entier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lexique entier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contact_donnees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En remplissant ce formulaire, vous acceptez que les données entrées soient conservées jusqu'à traitement par un administrateur, et ce dans l'unique but de donner éventuellement suite à votre prise de contact. Si celle-ci n'a pas lieu, vos données seront aussi supprimées.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ajouter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ajouter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">upload_err</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La mise en ligne du fichier a échoué. Vérifiez que le fichier ne dépasse pas 4 Mo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rtl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">تسجيل الدخول</t>
-  </si>
-  <si>
-    <t xml:space="preserve">معجم مكي اللبناني </t>
-  </si>
-  <si>
-    <t xml:space="preserve">الصفحة الرئيسية</t>
-  </si>
-  <si>
-    <t xml:space="preserve">بحث</t>
-  </si>
-  <si>
-    <t xml:space="preserve">بحث حسب الموضوع</t>
-  </si>
-  <si>
-    <t xml:space="preserve">صفحة الاتصال</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اللغة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">عرض المشروع</t>
-  </si>
-  <si>
-    <t xml:space="preserve">عرض المشروع يجب أن يكون هنا.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شكر المساهمة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جزء الشكر للمشروع يجب أن يكون هنا.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">للتواصل:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">© 2024 مكي - جميع الحقوق محفوظة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">النتائج:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الكلمات المشابهة، من نفس العائلة:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">للاتصل بنا</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الاسم واللقب </t>
-  </si>
-  <si>
-    <t xml:space="preserve">موضوع</t>
-  </si>
-  <si>
-    <t xml:space="preserve">إذا كانت جامعيا ، فالرجاء إشارة اسم الجامعة هنا !</t>
-  </si>
-  <si>
-    <t xml:space="preserve">البريد الإلكتروني</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الرسالة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اسم المستخدم</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كلمة المرور</t>
-  </si>
-  <si>
-    <t xml:space="preserve">تراخيص الاستخدام</t>
-  </si>
-  <si>
-    <t xml:space="preserve">نمط الأنماط: ترخيص MIT، شكرًا لـ تيماني عفيف.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">أيقونة الجمل والزهور: رخصة PD، شكرًا لـ داريوس دان.</t>
   </si>
   <si>
     <t xml:space="preserve">أيقونة النرد: رخصة CC0، شكرًا لـ استوديو ليما.</t>
@@ -834,17 +837,17 @@
   </sheetPr>
   <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B57" activeCellId="0" sqref="B57"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="114.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="10.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1520,11 +1523,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="114.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="10.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1767,10 +1770,10 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>57</v>
+        <v>181</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1778,7 +1781,7 @@
         <v>59</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1786,7 +1789,7 @@
         <v>61</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1794,7 +1797,7 @@
         <v>63</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1802,7 +1805,7 @@
         <v>65</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1810,7 +1813,7 @@
         <v>67</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1818,7 +1821,7 @@
         <v>69</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1826,7 +1829,7 @@
         <v>71</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1842,7 +1845,7 @@
         <v>73</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1850,7 +1853,7 @@
         <v>75</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1858,7 +1861,7 @@
         <v>77</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1866,7 +1869,7 @@
         <v>79</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1874,7 +1877,7 @@
         <v>81</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1882,7 +1885,7 @@
         <v>83</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1890,7 +1893,7 @@
         <v>84</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1898,7 +1901,7 @@
         <v>85</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1906,7 +1909,7 @@
         <v>87</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1914,7 +1917,7 @@
         <v>89</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1922,7 +1925,7 @@
         <v>91</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1930,7 +1933,7 @@
         <v>93</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1938,7 +1941,7 @@
         <v>95</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1946,7 +1949,7 @@
         <v>97</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1954,7 +1957,7 @@
         <v>99</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1962,7 +1965,7 @@
         <v>101</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1970,7 +1973,7 @@
         <v>103</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1978,7 +1981,7 @@
         <v>105</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1986,7 +1989,7 @@
         <v>107</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1994,7 +1997,7 @@
         <v>109</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2002,7 +2005,7 @@
         <v>111</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2010,7 +2013,7 @@
         <v>113</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2018,7 +2021,7 @@
         <v>115</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2026,7 +2029,7 @@
         <v>117</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2034,7 +2037,7 @@
         <v>119</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2042,7 +2045,7 @@
         <v>121</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2050,7 +2053,7 @@
         <v>123</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2058,7 +2061,7 @@
         <v>125</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2066,7 +2069,7 @@
         <v>127</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2074,7 +2077,7 @@
         <v>129</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2082,7 +2085,7 @@
         <v>131</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2090,7 +2093,7 @@
         <v>133</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2098,7 +2101,7 @@
         <v>135</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2106,7 +2109,7 @@
         <v>137</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2130,7 +2133,7 @@
         <v>143</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2138,7 +2141,7 @@
         <v>144</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2146,7 +2149,7 @@
         <v>146</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2154,7 +2157,7 @@
         <v>148</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2162,7 +2165,7 @@
         <v>150</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2170,7 +2173,7 @@
         <v>152</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/traductions/traductions.xlsx
+++ b/traductions/traductions.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="225">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -188,7 +188,7 @@
     <t xml:space="preserve">Pattern des fonds : Licence MIT, merci à Temani Afif.</t>
   </si>
   <si>
-    <t xml:space="preserve">licence_icone_chamfleur</t>
+    <t xml:space="preserve">licence_icone_cham</t>
   </si>
   <si>
     <t xml:space="preserve">Icône chameau : Licence PD, merci à Darius Dan.</t>
@@ -564,9 +564,6 @@
   </si>
   <si>
     <t xml:space="preserve">أيقونة الجمل والزهور: رخصة PD، شكرًا لـ داريوس دان.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">licence_icone_de</t>
   </si>
   <si>
     <t xml:space="preserve">أيقونة النرد: رخصة CC0، شكرًا لـ استوديو ليما.</t>
@@ -838,16 +835,16 @@
   <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
+      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="114.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="10.65"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1517,17 +1514,17 @@
   </sheetPr>
   <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="114.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="10.65"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1770,10 +1767,10 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1781,7 +1778,7 @@
         <v>59</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1789,7 +1786,7 @@
         <v>61</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1797,7 +1794,7 @@
         <v>63</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1805,7 +1802,7 @@
         <v>65</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1813,7 +1810,7 @@
         <v>67</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1821,7 +1818,7 @@
         <v>69</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1829,7 +1826,7 @@
         <v>71</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1845,7 +1842,7 @@
         <v>73</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1853,7 +1850,7 @@
         <v>75</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1861,7 +1858,7 @@
         <v>77</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1869,7 +1866,7 @@
         <v>79</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1877,7 +1874,7 @@
         <v>81</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1885,7 +1882,7 @@
         <v>83</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1893,7 +1890,7 @@
         <v>84</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1901,7 +1898,7 @@
         <v>85</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1909,7 +1906,7 @@
         <v>87</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1917,7 +1914,7 @@
         <v>89</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1925,7 +1922,7 @@
         <v>91</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1933,7 +1930,7 @@
         <v>93</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1941,7 +1938,7 @@
         <v>95</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1949,7 +1946,7 @@
         <v>97</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1957,7 +1954,7 @@
         <v>99</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1965,7 +1962,7 @@
         <v>101</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1973,7 +1970,7 @@
         <v>103</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1981,7 +1978,7 @@
         <v>105</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1989,7 +1986,7 @@
         <v>107</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1997,7 +1994,7 @@
         <v>109</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2005,7 +2002,7 @@
         <v>111</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2013,7 +2010,7 @@
         <v>113</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2021,7 +2018,7 @@
         <v>115</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2029,7 +2026,7 @@
         <v>117</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2037,7 +2034,7 @@
         <v>119</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2045,7 +2042,7 @@
         <v>121</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2053,7 +2050,7 @@
         <v>123</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2061,7 +2058,7 @@
         <v>125</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2069,7 +2066,7 @@
         <v>127</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2077,7 +2074,7 @@
         <v>129</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2085,7 +2082,7 @@
         <v>131</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2093,7 +2090,7 @@
         <v>133</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2101,7 +2098,7 @@
         <v>135</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2109,7 +2106,7 @@
         <v>137</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2133,7 +2130,7 @@
         <v>143</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2141,7 +2138,7 @@
         <v>144</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2149,7 +2146,7 @@
         <v>146</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2157,7 +2154,7 @@
         <v>148</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2165,7 +2162,7 @@
         <v>150</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2173,7 +2170,7 @@
         <v>152</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/traductions/traductions.xlsx
+++ b/traductions/traductions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="fr" sheetId="1" state="visible" r:id="rId2"/>
@@ -834,8 +834,8 @@
   </sheetPr>
   <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1514,7 +1514,7 @@
   </sheetPr>
   <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
     </sheetView>
   </sheetViews>

--- a/traductions/traductions.xlsx
+++ b/traductions/traductions.xlsx
@@ -188,13 +188,13 @@
     <t xml:space="preserve">Pattern des fonds : Licence MIT, merci à Temani Afif.</t>
   </si>
   <si>
-    <t xml:space="preserve">licence_icone_cham</t>
+    <t xml:space="preserve">licence_icone_chamfleur</t>
   </si>
   <si>
     <t xml:space="preserve">Icône chameau : Licence PD, merci à Darius Dan.</t>
   </si>
   <si>
-    <t xml:space="preserve">licence_icone_suppr</t>
+    <t xml:space="preserve">licence_icone_de</t>
   </si>
   <si>
     <t xml:space="preserve">Icône suppression : Licence CC, merci à Jordan Hughes.</t>
@@ -835,7 +835,7 @@
   <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
+      <selection pane="topLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1515,7 +1515,7 @@
   <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
+      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/traductions/traductions.xlsx
+++ b/traductions/traductions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="fr" sheetId="1" state="visible" r:id="rId2"/>
@@ -185,19 +185,19 @@
     <t xml:space="preserve">licence_pattern</t>
   </si>
   <si>
-    <t xml:space="preserve">Pattern des fonds : Licence MIT, merci à Temani Afif.</t>
+    <t xml:space="preserve">Pattern des fonds : &lt;a href="https://fr.wikipedia.org/wiki/Licence_MIT" target="_blank"&gt;Licence MIT&lt;/a&gt;, merci à &lt;a href="https://github.com/Afif13" target="_blank"&gt;Temani Afif&lt;/a&gt;.</t>
   </si>
   <si>
     <t xml:space="preserve">licence_icone_chamfleur</t>
   </si>
   <si>
-    <t xml:space="preserve">Icône chameau : Licence PD, merci à Darius Dan.</t>
+    <t xml:space="preserve">Icône chameau : &lt;a href="https://edutechwiki.unige.ch/fr/Mod%C3%A8le:Licence_PD" target="_blank"&gt;Licence PD&lt;/a&gt;, merci à &lt;a href="https://www.dariusdan.com" target="_blank"&gt;Darius Dan&lt;/a&gt;.</t>
   </si>
   <si>
     <t xml:space="preserve">licence_icone_de</t>
   </si>
   <si>
-    <t xml:space="preserve">Icône suppression : Licence CC, merci à Jordan Hughes.</t>
+    <t xml:space="preserve">Icône suppression : &lt;a href="https://fr.wikipedia.org/wiki/Licence_Creative_Commons" target="_blank"&gt;Licence CC&lt;/a&gt;, merci à &lt;a href="https://jordanhughes.co" target="_blank"&gt;Jordan Hughes&lt;/a&gt;.</t>
   </si>
   <si>
     <t xml:space="preserve">titre_fichiers_trad</t>
@@ -834,8 +834,8 @@
   </sheetPr>
   <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B36" activeCellId="0" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1514,7 +1514,7 @@
   </sheetPr>
   <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
     </sheetView>
   </sheetViews>
